--- a/biology/Botanique/Prymnésine/Prymnésine.xlsx
+++ b/biology/Botanique/Prymnésine/Prymnésine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prymn%C3%A9sine</t>
+          <t>Prymnésine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Une prymnésine est une phycotoxine produite par Prymnesium parvum, une microalgue responsable d'hécatombes de poissons. Ces composés sont formés de nombreux cycles fusionnés terminés par un système conjugué de doubles liaisons et triples liaisons, des ions chlorure, de l'azote comme hétéroatome, et des résidus osidiques comprenant du L-xylose[2].
+Une prymnésine est une phycotoxine produite par Prymnesium parvum, une microalgue responsable d'hécatombes de poissons. Ces composés sont formés de nombreux cycles fusionnés terminés par un système conjugué de doubles liaisons et triples liaisons, des ions chlorure, de l'azote comme hétéroatome, et des résidus osidiques comprenant du L-xylose.
 La prymésine 1 et la prymésine 2, les deux formes connues de prymnésine, diffèrent par leur glycosylation.
 </t>
         </is>
